--- a/инв.xlsx
+++ b/инв.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Полина\Desktop\folder\учеба\2 курс\4 сем\Электроника\лаба 4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Полина\Desktop\folder\гит\eltech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49E6A38-E89E-485B-B520-E96AFD7D742F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2A62D0-0D56-4708-9D82-C9288A7C700C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5424" yWindow="1752" windowWidth="17280" windowHeight="8964" xr2:uid="{54A49ACE-C42D-4EDF-9DB7-2AFC1F56E9F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="12360" xr2:uid="{54A49ACE-C42D-4EDF-9DB7-2AFC1F56E9F4}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -101,12 +97,12 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -117,99 +113,88 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C:$C</c:f>
+              <c:f>Лист1!$A:$A</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>-0.01</c:v>
+                  <c:v>-15</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-8.9999999999999993E-3</c:v>
+                  <c:v>-13.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.9000000000000008E-3</c:v>
+                  <c:v>-11.85</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-6.7999999999999996E-3</c:v>
+                  <c:v>-10.199999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-5.7000000000000002E-3</c:v>
+                  <c:v>-8.5500000000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-4.5999999999999999E-3</c:v>
+                  <c:v>-6.9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.5999999999999999E-3</c:v>
+                  <c:v>-5.25</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.5000000000000001E-3</c:v>
+                  <c:v>-3.6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-3.3999999999999998E-3</c:v>
+                  <c:v>-1.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-2.3E-3</c:v>
+                  <c:v>-0.3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.1999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1E-4</c:v>
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0.00E+00">
+                  <c:v>2.4313884240000001E-14</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1E-3</c:v>
+                  <c:v>0.15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>2.0999999999999999E-3</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.2000000000000002E-3</c:v>
+                  <c:v>3.45</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.3999999999999998E-3</c:v>
+                  <c:v>5.0999999999999996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.5000000000000001E-3</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3.5999999999999999E-3</c:v>
+                  <c:v>8.4</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.7000000000000002E-3</c:v>
+                  <c:v>10.050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.8E-3</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.8999999999999998E-3</c:v>
+                  <c:v>13.35</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.0000000000000001E-3</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>7.1000000000000004E-3</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>8.2000000000000007E-3</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.2999999999999992E-3</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.01</c:v>
+                  <c:v>14.85</c:v>
                 </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D:$D</c:f>
+              <c:f>Лист1!$B:$B</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>14.024100000000001</c:v>
+                  <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>14.023</c:v>
@@ -230,40 +215,40 @@
                   <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>13.9818</c:v>
+                  <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>13.6357</c:v>
+                  <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.2358399999999996</c:v>
+                  <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.83596</c:v>
+                  <c:v>14.023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.43607499999999999</c:v>
+                  <c:v>3.6086100000000003E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-3.9638100000000001</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-8.3636900000000001</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-12.7636</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-13.563499999999999</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-13.898300000000001</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-14.177199999999999</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-14.546200000000001</c:v>
+                  <c:v>-14.7029</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>-14.7029</c:v>
@@ -274,25 +259,14 @@
                 <c:pt idx="21">
                   <c:v>-14.7029</c:v>
                 </c:pt>
-                <c:pt idx="22">
-                  <c:v>-14.7029</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-14.7029</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-14.7029</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-14.7029</c:v>
-                </c:pt>
               </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-108F-40AF-BE66-76C0C69D0ABD}"/>
+              <c16:uniqueId val="{00000000-108F-40AF-BE66-76C0C69D0ABD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -310,12 +284,12 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
+                <c:idx val="1"/>
+                <c:order val="1"/>
                 <c:spPr>
                   <a:ln w="19050" cap="rnd">
                     <a:solidFill>
-                      <a:schemeClr val="accent1"/>
+                      <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
@@ -329,7 +303,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$A:$A</c15:sqref>
+                          <c15:sqref>Лист1!$C:$C</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -337,70 +311,82 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1048576"/>
                       <c:pt idx="0">
-                        <c:v>-15</c:v>
+                        <c:v>-0.01</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>-13.5</c:v>
+                        <c:v>-8.9999999999999993E-3</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>-11.85</c:v>
+                        <c:v>-7.9000000000000008E-3</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>-10.199999999999999</c:v>
+                        <c:v>-6.7999999999999996E-3</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>-8.5500000000000007</c:v>
+                        <c:v>-5.7000000000000002E-3</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>-6.9</c:v>
+                        <c:v>-4.5999999999999999E-3</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>-5.25</c:v>
+                        <c:v>-3.5999999999999999E-3</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>-3.6</c:v>
+                        <c:v>-3.5000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>-1.95</c:v>
+                        <c:v>-3.3999999999999998E-3</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>-0.3</c:v>
+                        <c:v>-2.3E-3</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>-0.15</c:v>
-                      </c:pt>
-                      <c:pt idx="11" formatCode="0.00E+00">
-                        <c:v>2.4313884240000001E-14</c:v>
+                        <c:v>-1.1999999999999999E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>-1E-4</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>0.15</c:v>
+                        <c:v>1E-3</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>1.8</c:v>
+                        <c:v>2.0999999999999999E-3</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>3.45</c:v>
+                        <c:v>3.2000000000000002E-3</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>5.0999999999999996</c:v>
+                        <c:v>3.3999999999999998E-3</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>6.75</c:v>
+                        <c:v>3.5000000000000001E-3</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>8.4</c:v>
+                        <c:v>3.5999999999999999E-3</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>10.050000000000001</c:v>
+                        <c:v>3.7000000000000002E-3</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>11.7</c:v>
+                        <c:v>3.8E-3</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>13.35</c:v>
+                        <c:v>4.8999999999999998E-3</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>14.85</c:v>
+                        <c:v>6.0000000000000001E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>7.1000000000000004E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>8.2000000000000007E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>9.2999999999999992E-3</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.01</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -410,7 +396,7 @@
                     <c:extLst>
                       <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Лист1!$B:$B</c15:sqref>
+                          <c15:sqref>Лист1!$D:$D</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -418,7 +404,7 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="1048576"/>
                       <c:pt idx="0">
-                        <c:v>14.023</c:v>
+                        <c:v>14.024100000000001</c:v>
                       </c:pt>
                       <c:pt idx="1">
                         <c:v>14.023</c:v>
@@ -439,40 +425,40 @@
                         <c:v>14.023</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>14.023</c:v>
+                        <c:v>13.9818</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>14.023</c:v>
+                        <c:v>13.6357</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>14.023</c:v>
+                        <c:v>9.2358399999999996</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>14.023</c:v>
+                        <c:v>4.83596</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>3.6086100000000003E-2</c:v>
+                        <c:v>0.43607499999999999</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>-14.7029</c:v>
+                        <c:v>-3.9638100000000001</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>-14.7029</c:v>
+                        <c:v>-8.3636900000000001</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>-14.7029</c:v>
+                        <c:v>-12.7636</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>-14.7029</c:v>
+                        <c:v>-13.563499999999999</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>-14.7029</c:v>
+                        <c:v>-13.898300000000001</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>-14.7029</c:v>
+                        <c:v>-14.177199999999999</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>-14.7029</c:v>
+                        <c:v>-14.546200000000001</c:v>
                       </c:pt>
                       <c:pt idx="19">
                         <c:v>-14.7029</c:v>
@@ -481,6 +467,18 @@
                         <c:v>-14.7029</c:v>
                       </c:pt>
                       <c:pt idx="21">
+                        <c:v>-14.7029</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>-14.7029</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>-14.7029</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>-14.7029</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
                         <c:v>-14.7029</c:v>
                       </c:pt>
                     </c:numCache>
@@ -489,7 +487,7 @@
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-108F-40AF-BE66-76C0C69D0ABD}"/>
+                    <c16:uniqueId val="{00000002-108F-40AF-BE66-76C0C69D0ABD}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -1569,8 +1567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F237024E-4097-45E2-B11D-02612BF347F3}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
